--- a/src/main/resources/excel/registrations.xlsx
+++ b/src/main/resources/excel/registrations.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Brand</t>
   </si>
@@ -39,33 +39,6 @@
   </si>
   <si>
     <t>Image Path</t>
-  </si>
-  <si>
-    <t>e4yeyy5y</t>
-  </si>
-  <si>
-    <t>56565656</t>
-  </si>
-  <si>
-    <t>Lubelskie</t>
-  </si>
-  <si>
-    <t>Biłgorajski</t>
-  </si>
-  <si>
-    <t>Standardowy</t>
-  </si>
-  <si>
-    <t>LBL 51E6</t>
-  </si>
-  <si>
-    <t>C:\Users\Tony\IdeaProjects\PlateGEN\src\main\resources\images\license-plates\LBL 51E6.png</t>
-  </si>
-  <si>
-    <t>LBL 049BM</t>
-  </si>
-  <si>
-    <t>C:\Users\Tony\IdeaProjects\PlateGEN\src\main\resources\images\license-plates\LBL 049BM.png</t>
   </si>
 </sst>
 </file>
@@ -110,21 +83,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.95703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="6.3671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="6.8359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.734375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="12.03125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="10.19140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="12.85546875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="9.67578125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="7.5234375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="13.4140625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="4.96875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="88.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.11328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -156,64 +129,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5656.0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5656.0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
